--- a/data/trans_bre/P68-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P68-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.757524293330698</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.670273313958573</v>
+        <v>-1.670273313958577</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.0009331839460481269</v>
@@ -649,7 +649,7 @@
         <v>-0.04124370753882897</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1348906903613094</v>
+        <v>-0.1348906903613097</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.97964649695044</v>
+        <v>-10.91616785901154</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.13573418182034</v>
+        <v>-10.11964534150644</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.02323611330099</v>
+        <v>-15.22588502479917</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.027347711579901</v>
+        <v>-7.523296349611015</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.378559387738115</v>
+        <v>-0.3485792130681696</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.309918421332629</v>
+        <v>-0.2760730927674842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.299815776193734</v>
+        <v>-0.3205177506881225</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5037129819996419</v>
+        <v>-0.4864183017594846</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.2126931972382</v>
+        <v>10.75587272698172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.11273660565683</v>
+        <v>17.01557590517796</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.41984298624489</v>
+        <v>13.56801497428386</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.091661249516315</v>
+        <v>4.311148452167616</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4742580331977448</v>
+        <v>0.5207561542631886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.590888547552861</v>
+        <v>0.698927886855221</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3369717093321946</v>
+        <v>0.3704388418581495</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4334413609865403</v>
+        <v>0.4952552386618334</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-11.95922797220645</v>
+        <v>-11.25627268283368</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-17.12431534655037</v>
+        <v>-15.62997693703328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-23.02500529713257</v>
+        <v>-22.91724100996259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.298759688984079</v>
+        <v>-3.171479300067646</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3803256255668318</v>
+        <v>-0.3714048021205358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.449807244858669</v>
+        <v>-0.4193955538713891</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4289684800621507</v>
+        <v>-0.4249034673166923</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09643430781556307</v>
+        <v>-0.1101947884723223</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.177560367437692</v>
+        <v>6.767796329299763</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.694196339877353</v>
+        <v>8.540356988743945</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8600096292493626</v>
+        <v>1.17113309512569</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15.55325494564079</v>
+        <v>16.81326013310241</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3026770124854306</v>
+        <v>0.2984103131276863</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2029585836739874</v>
+        <v>0.3411937024878425</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02144405982870667</v>
+        <v>0.0277647551674877</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9731423056582061</v>
+        <v>1.07781965846931</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.409564291775523</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.675225388688665</v>
+        <v>4.67522538868867</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1060757912034955</v>
@@ -849,7 +849,7 @@
         <v>-0.1384002146181417</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1399023149313919</v>
+        <v>0.1399023149313921</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.96041470969638</v>
+        <v>-8.072891520363367</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.80296530506619</v>
+        <v>-7.44865635407472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.5479240837721</v>
+        <v>-12.11185671775891</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.015831855209783</v>
+        <v>-5.183288490139208</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.323696158432612</v>
+        <v>-0.3440304420086843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3640099993022418</v>
+        <v>-0.3593365131680487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5522870004970739</v>
+        <v>-0.5440791362840427</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1316092010706991</v>
+        <v>-0.1362809005313537</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.3638915839954</v>
+        <v>13.89585267557371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.92856545979701</v>
+        <v>15.2272545043452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.482578773433849</v>
+        <v>7.282699800261437</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.82158248279109</v>
+        <v>14.55205691572081</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7865678761177924</v>
+        <v>0.8364453309034762</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9254502061519094</v>
+        <v>1.157206745098225</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6243361303572815</v>
+        <v>0.6272664935468989</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5792670761050309</v>
+        <v>0.5128231077204242</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.489511315163012</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.04167695616634</v>
+        <v>4.041676956166351</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3559757693339786</v>
@@ -949,7 +949,7 @@
         <v>0.2933485833511946</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1576366296726033</v>
+        <v>0.1576366296726038</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-17.6856544838169</v>
+        <v>-17.58248109041503</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-17.86810862815196</v>
+        <v>-16.49266851747308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.327174999337895</v>
+        <v>-4.547602143435197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.012287408053305</v>
+        <v>-7.35191229743612</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5989525274100407</v>
+        <v>-0.5968293961729602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4615545902155671</v>
+        <v>-0.432373702866281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1873642978241096</v>
+        <v>-0.1457821376481611</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1929026642784454</v>
+        <v>-0.2216603217983802</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2573626857588034</v>
+        <v>-0.3589046042400085</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.699498414140756</v>
+        <v>7.894423235948365</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22.19893622808619</v>
+        <v>23.45651080887354</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.6795575253954</v>
+        <v>13.95675542703321</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03794373764349621</v>
+        <v>-0.003158581634958089</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2742109754700466</v>
+        <v>0.3032220811482816</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9756488121979859</v>
+        <v>1.016848848559716</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7462420705701065</v>
+        <v>0.7014304988775192</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.146267348895</v>
+        <v>-17.54196788578904</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.07808202666384</v>
+        <v>-12.28534271574429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.91280995612681</v>
+        <v>-20.28248706496508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.97909891157306</v>
+        <v>-12.17067964022715</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7339599658368722</v>
+        <v>-0.7184936340365181</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.529548482650239</v>
+        <v>-0.5276597960496366</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8143706678263386</v>
+        <v>-0.8085437040503483</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5843997809487405</v>
+        <v>-0.5971643328606089</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.890364822307452</v>
+        <v>7.687916609713296</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.69479936335186</v>
+        <v>16.46592012190224</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.299739347944903</v>
+        <v>4.085092997836655</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.124076013784558</v>
+        <v>1.767188226977708</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5747208426467751</v>
+        <v>0.5207973367687969</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.140109757231301</v>
+        <v>1.16552395694401</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4054739757612657</v>
+        <v>0.4467779435912209</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1898745995280396</v>
+        <v>0.1941966162479159</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>-0.5334438349746999</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4186177824644105</v>
+        <v>0.4186177824644106</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-20.29695508881569</v>
+        <v>-20.24669983326667</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-24.88760965452754</v>
+        <v>-25.7935748956462</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-22.38904362874345</v>
+        <v>-22.13478940008476</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.9483773297088374</v>
+        <v>-0.3857702405009649</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6608404096362503</v>
+        <v>-0.6370986682292606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5889868806136259</v>
+        <v>-0.5801492060827909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8569910009980504</v>
+        <v>-0.8118269586913327</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02778693949047142</v>
+        <v>-0.01375015066413522</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.463243610885205</v>
+        <v>1.658226233111741</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.205734608457101</v>
+        <v>5.984682654995813</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-1.661653590609582</v>
+        <v>-1.213249403293132</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.93912598125324</v>
+        <v>21.21481292164584</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07085786525599676</v>
+        <v>0.09539592694548932</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1746834743735235</v>
+        <v>0.1969446512201301</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01283478052105452</v>
+        <v>0.09097750989110373</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.065975646458754</v>
+        <v>1.11198367329985</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.35301069367869</v>
+        <v>-10.0551482048228</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.031494120796932</v>
+        <v>-2.51302264312724</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.669123977649802</v>
+        <v>-9.285845527695457</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.412908397409955</v>
+        <v>-5.926105430018917</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3537468605829254</v>
+        <v>-0.3464947275469984</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.09111122161015432</v>
+        <v>-0.1133050229558153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3492039360132168</v>
+        <v>-0.3578316941285398</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2109302831589476</v>
+        <v>-0.2357860973925353</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.209632343631527</v>
+        <v>6.868875564776608</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.96842921047037</v>
+        <v>14.10919656115614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.332569246261761</v>
+        <v>4.34077801074737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.229282521792984</v>
+        <v>6.951669572696908</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2562844324825241</v>
+        <v>0.2964163775692529</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8882640515412847</v>
+        <v>0.7978453239963801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2317069422858996</v>
+        <v>0.2365572375485418</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4099638268472929</v>
+        <v>0.3592488971425927</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-2.994757516999158</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.92114554715319</v>
+        <v>3.921145547153193</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1236516154008254</v>
@@ -1349,7 +1349,7 @@
         <v>-0.249217623679761</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.268355511154433</v>
+        <v>0.2683555111544331</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-9.24548056476557</v>
+        <v>-8.995439273149691</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-6.932186805767778</v>
+        <v>-6.640095566484177</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-8.027340760088968</v>
+        <v>-7.968757130562584</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.358439559502633</v>
+        <v>-1.54816973532307</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3620783207122076</v>
+        <v>-0.3511809935429501</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4433405379608368</v>
+        <v>-0.4255190377985013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5653697782758605</v>
+        <v>-0.5739701390060039</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08116776405824519</v>
+        <v>-0.09957966006565526</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.79509841894019</v>
+        <v>3.770423832549036</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.747972258176437</v>
+        <v>4.037242965738534</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.032787476514909</v>
+        <v>2.23791152728069</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.362372750134455</v>
+        <v>9.022321332457137</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1711934306608602</v>
+        <v>0.1716117323559762</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.46920354302728</v>
+        <v>0.3837653863416938</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3262063302272681</v>
+        <v>0.226637024484381</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7573757572748906</v>
+        <v>0.7309982351329469</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-3.724880023428276</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.991963455423901</v>
+        <v>2.991963455423896</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.1338204126455056</v>
@@ -1449,7 +1449,7 @@
         <v>-0.1502647228101151</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.147948784461525</v>
+        <v>0.1479487844615247</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.54290424669759</v>
+        <v>-6.51508826668451</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.138277625292681</v>
+        <v>-4.318830090820311</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.555147362666373</v>
+        <v>-6.983693277171898</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.008924993143968883</v>
+        <v>0.2055014757728174</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2511143404861491</v>
+        <v>-0.2484361715693981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1655616156449638</v>
+        <v>-0.1740865282612894</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.2848204053617246</v>
+        <v>-0.2624703450849813</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.0005768627855659529</v>
+        <v>0.009548177524931726</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1933778518385788</v>
+        <v>-0.0213151350979501</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.000764762724868</v>
+        <v>2.66799690279897</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.6201298003817114</v>
+        <v>-0.1736117944550656</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.94521837599038</v>
+        <v>5.494564204501118</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.004997342863817259</v>
+        <v>0.004506010130662294</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1429342933863088</v>
+        <v>0.1207673929234309</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.02607044466250623</v>
+        <v>-0.005456577875057904</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.3164929563668198</v>
+        <v>0.2932732727243136</v>
       </c>
     </row>
     <row r="31">
